--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
@@ -934,6 +934,47 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,47 +985,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1315,29 +1315,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1832,17 +1832,17 @@
         <v>43648</v>
       </c>
       <c r="D21" s="84"/>
-      <c r="E21" s="109">
+      <c r="E21" s="98">
         <v>763476</v>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="98">
         <v>789738</v>
       </c>
       <c r="G21" s="42">
         <f>F21/A$21</f>
         <v>5.1281688311688313E-2</v>
       </c>
-      <c r="H21" s="107">
+      <c r="H21" s="96">
         <f>A21-F21</f>
         <v>14610262</v>
       </c>
@@ -1865,17 +1865,17 @@
       <c r="D22" s="85">
         <v>43725</v>
       </c>
-      <c r="E22" s="110">
+      <c r="E22" s="99">
         <v>1046952</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="99">
         <v>1133004</v>
       </c>
-      <c r="G22" s="114">
+      <c r="G22" s="103">
         <f t="shared" ref="G22" si="2">F22/A$21</f>
         <v>7.357168831168831E-2</v>
       </c>
-      <c r="H22" s="106">
+      <c r="H22" s="95">
         <f t="shared" ref="H22:I22" si="3">H21-F22</f>
         <v>13477258</v>
       </c>
@@ -1892,10 +1892,10 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="106"/>
+      <c r="H23" s="95"/>
       <c r="I23" s="29"/>
       <c r="J23" s="77"/>
       <c r="K23" s="69"/>
@@ -1906,10 +1906,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="111"/>
+      <c r="H24" s="100"/>
       <c r="I24" s="14"/>
       <c r="J24" s="77"/>
       <c r="K24" s="77"/>
@@ -1920,10 +1920,10 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="106"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="29"/>
       <c r="J25" s="77"/>
       <c r="K25" s="78"/>
@@ -1934,10 +1934,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="106"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="29"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
@@ -1948,10 +1948,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="106"/>
+      <c r="H27" s="95"/>
       <c r="I27" s="29"/>
       <c r="J27" s="77"/>
       <c r="K27" s="77"/>
@@ -1962,10 +1962,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="106"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="29"/>
       <c r="J28" s="77"/>
       <c r="K28" s="77"/>
@@ -1976,10 +1976,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="106"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="106"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="30"/>
       <c r="J29" s="77"/>
       <c r="K29" s="77"/>
@@ -1990,10 +1990,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="106"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="95"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="106"/>
+      <c r="H30" s="95"/>
       <c r="I30" s="30"/>
       <c r="J30" s="77"/>
       <c r="K30" s="77"/>
@@ -2004,10 +2004,10 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="113"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="108"/>
+      <c r="H31" s="97"/>
       <c r="I31" s="31"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2057,12 +2057,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2071,10 +2071,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
@@ -2089,11 +2089,11 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="97">
+      <c r="A38" s="112">
         <f>A21-F32</f>
         <v>13477258</v>
       </c>
-      <c r="B38" s="98"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="83">
         <f>1-G32</f>
         <v>0.87514662337662341</v>
@@ -2155,8 +2155,8 @@
       <c r="F42" s="65"/>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="96"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="111"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="66"/>
@@ -2250,9 +2250,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="104"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="108"/>
       <c r="E52" s="71"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2269,8 +2269,8 @@
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="96"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="111"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="66"/>
@@ -2281,8 +2281,8 @@
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
       <c r="H54" s="67"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="66"/>
@@ -2293,8 +2293,8 @@
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2307,23 +2307,18 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="95"/>
-      <c r="C61" s="96"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="111"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="95"/>
-      <c r="C68" s="96"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="111"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2331,6 +2326,11 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
@@ -961,20 +961,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,6 +970,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1302,7 +1302,7 @@
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
@@ -1315,29 +1315,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="36"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="26.4">
+    <row r="5" spans="1:13">
       <c r="A5" s="49">
         <v>1</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="K5" s="50"/>
       <c r="L5" s="80"/>
     </row>
-    <row r="6" spans="1:13" ht="26.4">
+    <row r="6" spans="1:13">
       <c r="A6" s="53">
         <f>A5+1</f>
         <v>2</v>
@@ -1450,7 +1450,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="81"/>
     </row>
-    <row r="7" spans="1:13" ht="26.4">
+    <row r="7" spans="1:13">
       <c r="A7" s="53">
         <f t="shared" ref="A7:A17" si="1">A6+1</f>
         <v>3</v>
@@ -1478,7 +1478,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="81"/>
     </row>
-    <row r="8" spans="1:13" ht="26.4">
+    <row r="8" spans="1:13">
       <c r="A8" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1506,7 +1506,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="81"/>
     </row>
-    <row r="9" spans="1:13" ht="26.4">
+    <row r="9" spans="1:13">
       <c r="A9" s="53">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1534,7 +1534,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="81"/>
     </row>
-    <row r="10" spans="1:13" ht="26.4">
+    <row r="10" spans="1:13">
       <c r="A10" s="53">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1562,7 +1562,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="81"/>
     </row>
-    <row r="11" spans="1:13" ht="26.4">
+    <row r="11" spans="1:13">
       <c r="A11" s="53">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1591,7 +1591,7 @@
       <c r="L11" s="81"/>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" ht="19.2" customHeight="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="53">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1620,7 +1620,7 @@
       <c r="L12" s="81"/>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" ht="34.799999999999997" customHeight="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1650,7 +1650,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="81"/>
     </row>
-    <row r="14" spans="1:13" ht="30.6" customHeight="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="53">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1678,7 +1678,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="81"/>
     </row>
-    <row r="15" spans="1:13" ht="29.4" customHeight="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="53">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1706,7 +1706,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="81"/>
     </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="53">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1734,7 +1734,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="81"/>
     </row>
-    <row r="17" spans="1:12" ht="25.8" customHeight="1">
+    <row r="17" spans="1:12" ht="26.4">
       <c r="A17" s="53">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2057,12 +2057,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2071,10 +2071,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="114" t="s">
+      <c r="A37" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="114"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
@@ -2089,11 +2089,11 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="112">
+      <c r="A38" s="106">
         <f>A21-F32</f>
         <v>13477258</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="83">
         <f>1-G32</f>
         <v>0.87514662337662341</v>
@@ -2155,8 +2155,8 @@
       <c r="F42" s="65"/>
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="111"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="105"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="66"/>
@@ -2250,9 +2250,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="108"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="113"/>
       <c r="E52" s="71"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2269,8 +2269,8 @@
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="111"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="66"/>
@@ -2281,8 +2281,8 @@
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
       <c r="H54" s="67"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="66"/>
@@ -2293,8 +2293,8 @@
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2307,18 +2307,23 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="110"/>
-      <c r="C61" s="111"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="110"/>
-      <c r="C68" s="111"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="105"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2326,11 +2331,6 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
@@ -143,9 +143,6 @@
     <t>Кол-во брака, шт</t>
   </si>
   <si>
-    <t>Формокомплект бутылки «Дрозды 0,5 л»  тип XXI-B-28-2.1в-500-3 (владелец ООО "ВЕДАТРАНЗИТ" дог. №25/04 от 25.04.2014)</t>
-  </si>
-  <si>
     <t>Дата поставки  11.06.19 (c остаточным ресурсом 100 %)</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                           А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Дрозды 0,5 л»  тип XXI-B-28-2.1б-500-3 (владелец ООО "Радамир")</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1316,7 +1316,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="110" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
@@ -1403,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="52">
         <v>22</v>
@@ -1431,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="9">
         <v>22</v>
@@ -1459,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="9">
         <v>26</v>
@@ -1487,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9">
         <v>26</v>
@@ -1515,7 +1515,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9">
         <v>18</v>
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="9">
         <v>18</v>
@@ -1571,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9">
         <v>50</v>
@@ -1600,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="9">
         <v>22</v>
@@ -1629,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9">
         <v>8</v>
@@ -1659,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9">
         <v>40</v>
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="9">
         <v>50</v>
@@ -1712,10 +1712,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="94" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="9">
         <v>22</v>
@@ -1740,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="92"/>
       <c r="D17" s="9">
@@ -1889,14 +1889,33 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="29"/>
+      <c r="B23" s="10">
+        <v>43787</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43793</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43795</v>
+      </c>
+      <c r="E23" s="95">
+        <v>1112886</v>
+      </c>
+      <c r="F23" s="95">
+        <v>1150472</v>
+      </c>
+      <c r="G23" s="103">
+        <f t="shared" ref="G23" si="4">F23/A$21</f>
+        <v>7.4705974025974023E-2</v>
+      </c>
+      <c r="H23" s="95">
+        <f t="shared" ref="H23" si="5">H22-F23</f>
+        <v>12326786</v>
+      </c>
+      <c r="I23" s="87">
+        <f t="shared" ref="I23" si="6">I22-G23</f>
+        <v>0.8004406493506494</v>
+      </c>
       <c r="J23" s="77"/>
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
@@ -2022,23 +2041,23 @@
       <c r="D32" s="21"/>
       <c r="E32" s="61">
         <f>SUM(E21:E31)</f>
-        <v>1810428</v>
+        <v>2923314</v>
       </c>
       <c r="F32" s="60">
         <f>SUM(F21:F31)</f>
-        <v>1922742</v>
+        <v>3073214</v>
       </c>
       <c r="G32" s="26">
         <f>SUM(G21:G31)</f>
-        <v>0.12485337662337662</v>
+        <v>0.19955935064935065</v>
       </c>
       <c r="H32" s="22">
         <f>A21-F32</f>
-        <v>13477258</v>
+        <v>12326786</v>
       </c>
       <c r="I32" s="33">
         <f>1-G32</f>
-        <v>0.87514662337662341</v>
+        <v>0.80044064935064929</v>
       </c>
       <c r="J32" s="79"/>
       <c r="K32" s="79"/>
@@ -2091,19 +2110,19 @@
     <row r="38" spans="1:11">
       <c r="A38" s="106">
         <f>A21-F32</f>
-        <v>13477258</v>
+        <v>12326786</v>
       </c>
       <c r="B38" s="107"/>
       <c r="C38" s="83">
         <f>1-G32</f>
-        <v>0.87514662337662341</v>
+        <v>0.80044064935064929</v>
       </c>
       <c r="D38" s="23">
         <f>(C38/0.8)*100</f>
-        <v>109.39332792207792</v>
+        <v>100.05508116883115</v>
       </c>
       <c r="E38" s="90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" s="90"/>
       <c r="G38" s="90"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
@@ -17,14 +17,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>№Поз</t>
   </si>
@@ -162,6 +162,30 @@
   </si>
   <si>
     <t>Формокомплект бутылки «Дрозды 0,5 л»  тип XXI-B-28-2.1б-500-3 (владелец ООО "Радамир")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вес, гр. (ном. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>390</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> гр.)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -175,7 +199,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -708,7 +732,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -733,17 +757,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -756,23 +775,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -926,14 +934,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,6 +960,20 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -972,18 +986,61 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,11 +1351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -1314,38 +1371,38 @@
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="114" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1353,84 +1410,84 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="49">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="44">
         <v>22</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="44">
         <v>22</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44">
         <f>E5-F5</f>
         <v>22</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="80"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="53">
+      <c r="H5" s="49"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="9">
@@ -1439,26 +1496,26 @@
       <c r="E6" s="9">
         <v>22</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G17" si="0">E6-F6</f>
         <v>22</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="81"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="53">
+      <c r="L6" s="73"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
         <f t="shared" ref="A7:A17" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="9">
@@ -1467,26 +1524,26 @@
       <c r="E7" s="9">
         <v>26</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="81"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="53">
+      <c r="L7" s="73"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9">
@@ -1495,26 +1552,26 @@
       <c r="E8" s="9">
         <v>26</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="81"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="53">
+      <c r="L8" s="73"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9">
@@ -1523,26 +1580,26 @@
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="81"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="53">
+      <c r="L9" s="73"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="9">
@@ -1551,26 +1608,26 @@
       <c r="E10" s="9">
         <v>18</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="81"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="53">
+      <c r="L10" s="73"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="9">
@@ -1579,27 +1636,27 @@
       <c r="E11" s="9">
         <v>50</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="53">
+      <c r="L11" s="73"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="120" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9">
@@ -1608,27 +1665,27 @@
       <c r="E12" s="9">
         <v>22</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="56"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="32"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="53">
+      <c r="L12" s="73"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="9">
@@ -1637,28 +1694,28 @@
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="81"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="53">
+      <c r="L13" s="73"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9">
@@ -1667,26 +1724,26 @@
       <c r="E14" s="9">
         <v>40</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="56"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="53">
+      <c r="L14" s="73"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="9">
@@ -1695,26 +1752,26 @@
       <c r="E15" s="12">
         <v>50</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="56"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="81"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="53">
+      <c r="L15" s="73"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="120" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="9">
@@ -1723,46 +1780,46 @@
       <c r="E16" s="12">
         <v>22</v>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="56"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="81"/>
-    </row>
-    <row r="17" spans="1:12" ht="26.4">
-      <c r="A17" s="53">
+      <c r="L16" s="73"/>
+    </row>
+    <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="9">
         <v>100</v>
       </c>
       <c r="E17" s="12">
         <v>100</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="88"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="81"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="73"/>
-      <c r="B18" s="72"/>
+      <c r="L17" s="73"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1772,9 +1829,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="13"/>
@@ -1784,111 +1841,113 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-    </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A20" s="43" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+    </row>
+    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="82">
+      <c r="J20" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
         <f>E5*700000</f>
         <v>15400000</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="76">
         <v>43643</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="78">
         <v>43648</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="98">
+      <c r="D21" s="76"/>
+      <c r="E21" s="86">
         <v>763476</v>
       </c>
-      <c r="F21" s="98">
+      <c r="F21" s="86">
         <v>789738</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="34">
         <f>F21/A$21</f>
         <v>5.1281688311688313E-2</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="84">
         <f>A21-F21</f>
         <v>14610262</v>
       </c>
-      <c r="I21" s="87">
+      <c r="I21" s="79">
         <f>1-G21</f>
         <v>0.94871831168831167</v>
       </c>
-      <c r="J21" s="77"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="85">
+      <c r="J21" s="103"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="77">
         <v>43717</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="77">
         <v>43723</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="77">
         <v>43725</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="87">
         <v>1046952</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="87">
         <v>1133004</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G22" s="91">
         <f t="shared" ref="G22" si="2">F22/A$21</f>
         <v>7.357168831168831E-2</v>
       </c>
-      <c r="H22" s="95">
-        <f t="shared" ref="H22:I22" si="3">H21-F22</f>
+      <c r="H22" s="83">
+        <f t="shared" ref="H22:J22" si="3">H21-F22</f>
         <v>13477258</v>
       </c>
-      <c r="I22" s="87">
+      <c r="I22" s="79">
         <f t="shared" si="3"/>
         <v>0.87514662337662341</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="103"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
       <c r="B23" s="10">
         <v>43787</v>
       </c>
@@ -1898,172 +1957,193 @@
       <c r="D23" s="10">
         <v>43795</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E23" s="83">
         <v>1112886</v>
       </c>
-      <c r="F23" s="95">
+      <c r="F23" s="83">
         <v>1150472</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="91">
         <f t="shared" ref="G23" si="4">F23/A$21</f>
         <v>7.4705974025974023E-2</v>
       </c>
-      <c r="H23" s="95">
+      <c r="H23" s="83">
         <f t="shared" ref="H23" si="5">H22-F23</f>
         <v>12326786</v>
       </c>
-      <c r="I23" s="87">
-        <f t="shared" ref="I23" si="6">I22-G23</f>
+      <c r="I23" s="79">
+        <f t="shared" ref="I23:J23" si="6">I22-G23</f>
         <v>0.8004406493506494</v>
       </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="106">
+        <v>43868</v>
+      </c>
+      <c r="C24" s="106">
+        <v>43872</v>
+      </c>
+      <c r="D24" s="106">
+        <v>43873</v>
+      </c>
+      <c r="E24" s="88">
+        <v>797202</v>
+      </c>
+      <c r="F24" s="88">
+        <v>847836</v>
+      </c>
+      <c r="G24" s="91">
+        <f t="shared" ref="G24" si="7">F24/A$21</f>
+        <v>5.5054285714285715E-2</v>
+      </c>
+      <c r="H24" s="83">
+        <f t="shared" ref="H24" si="8">H23-F24</f>
+        <v>11478950</v>
+      </c>
+      <c r="I24" s="79">
+        <f t="shared" ref="I24" si="9">I23-G24</f>
+        <v>0.74538636363636368</v>
+      </c>
+      <c r="J24" s="108">
+        <v>386</v>
+      </c>
+      <c r="K24" s="69"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="69"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="15"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="69"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="69"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="69"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="15"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="69"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="1"/>
+    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="61">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="53">
         <f>SUM(E21:E31)</f>
-        <v>2923314</v>
-      </c>
-      <c r="F32" s="60">
+        <v>3720516</v>
+      </c>
+      <c r="F32" s="52">
         <f>SUM(F21:F31)</f>
-        <v>3073214</v>
-      </c>
-      <c r="G32" s="26">
+        <v>3921050</v>
+      </c>
+      <c r="G32" s="22">
         <f>SUM(G21:G31)</f>
-        <v>0.19955935064935065</v>
-      </c>
-      <c r="H32" s="22">
+        <v>0.25461363636363638</v>
+      </c>
+      <c r="H32" s="19">
         <f>A21-F32</f>
-        <v>12326786</v>
-      </c>
-      <c r="I32" s="33">
+        <v>11478950</v>
+      </c>
+      <c r="I32" s="25">
         <f>1-G32</f>
-        <v>0.80044064935064929</v>
-      </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.74538636363636357</v>
+      </c>
+      <c r="J32" s="105"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2075,13 +2155,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="111" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2089,11 +2169,11 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="108" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="108"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
@@ -2107,30 +2187,30 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="106">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="100">
         <f>A21-F32</f>
-        <v>12326786</v>
-      </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="83">
+        <v>11478950</v>
+      </c>
+      <c r="B38" s="101"/>
+      <c r="C38" s="75">
         <f>1-G32</f>
-        <v>0.80044064935064929</v>
-      </c>
-      <c r="D38" s="23">
+        <v>0.74538636363636357</v>
+      </c>
+      <c r="D38" s="20">
         <f>(C38/0.8)*100</f>
-        <v>100.05508116883115</v>
-      </c>
-      <c r="E38" s="90" t="s">
+        <v>93.173295454545439</v>
+      </c>
+      <c r="E38" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2138,7 +2218,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2153,7 +2233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2165,157 +2245,157 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="105"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="99"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="67"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="67"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="59"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="58"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="67"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="66"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="67"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="59"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="67"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="66"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="66"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="67"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="67"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="66"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="59"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="59"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="67"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.6">
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="59"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="71"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="105"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="66"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="99"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="66"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2325,24 +2405,19 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="104"/>
-      <c r="C68" s="105"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="98"/>
+      <c r="C61" s="99"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="98"/>
+      <c r="C68" s="99"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2350,15 +2425,23 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="12" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="37" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -2368,7 +2451,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2384,7 +2467,7 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
@@ -961,86 +961,86 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1349,6 +1349,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -1372,29 +1375,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1459,7 +1462,7 @@
       <c r="B5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="107" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="44">
@@ -1487,7 +1490,7 @@
       <c r="B6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="9">
@@ -1515,7 +1518,7 @@
       <c r="B7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="9">
@@ -1543,7 +1546,7 @@
       <c r="B8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9">
@@ -1571,7 +1574,7 @@
       <c r="B9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9">
@@ -1599,7 +1602,7 @@
       <c r="B10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="9">
@@ -1627,7 +1630,7 @@
       <c r="B11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="9">
@@ -1656,7 +1659,7 @@
       <c r="B12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="109" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9">
@@ -1685,7 +1688,7 @@
       <c r="B13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="9">
@@ -1715,7 +1718,7 @@
       <c r="B14" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9">
@@ -1743,7 +1746,7 @@
       <c r="B15" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="9">
@@ -1771,7 +1774,7 @@
       <c r="B16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="109" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="9">
@@ -1799,7 +1802,7 @@
       <c r="B17" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="9">
         <v>100</v>
       </c>
@@ -1909,7 +1912,7 @@
         <f>1-G21</f>
         <v>0.94871831168831167</v>
       </c>
-      <c r="J21" s="103"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="61"/>
       <c r="L21" s="61"/>
     </row>
@@ -1935,14 +1938,14 @@
         <v>7.357168831168831E-2</v>
       </c>
       <c r="H22" s="83">
-        <f t="shared" ref="H22:J22" si="3">H21-F22</f>
+        <f t="shared" ref="H22:I22" si="3">H21-F22</f>
         <v>13477258</v>
       </c>
       <c r="I22" s="79">
         <f t="shared" si="3"/>
         <v>0.87514662337662341</v>
       </c>
-      <c r="J22" s="103"/>
+      <c r="J22" s="92"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
@@ -1972,22 +1975,22 @@
         <v>12326786</v>
       </c>
       <c r="I23" s="79">
-        <f t="shared" ref="I23:J23" si="6">I22-G23</f>
+        <f t="shared" ref="I23" si="6">I22-G23</f>
         <v>0.8004406493506494</v>
       </c>
-      <c r="J23" s="103"/>
+      <c r="J23" s="92"/>
       <c r="K23" s="61"/>
       <c r="L23" s="61"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="106">
+      <c r="B24" s="95">
         <v>43868</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="95">
         <v>43872</v>
       </c>
-      <c r="D24" s="106">
+      <c r="D24" s="95">
         <v>43873</v>
       </c>
       <c r="E24" s="88">
@@ -2008,7 +2011,7 @@
         <f t="shared" ref="I24" si="9">I23-G24</f>
         <v>0.74538636363636368</v>
       </c>
-      <c r="J24" s="108">
+      <c r="J24" s="97">
         <v>386</v>
       </c>
       <c r="K24" s="69"/>
@@ -2016,99 +2019,99 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="83"/>
       <c r="F25" s="83"/>
-      <c r="G25" s="109"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="83"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="104"/>
+      <c r="J25" s="93"/>
       <c r="K25" s="70"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="83"/>
       <c r="F26" s="83"/>
-      <c r="G26" s="109"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="83"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="104"/>
+      <c r="J26" s="93"/>
       <c r="K26" s="69"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="83"/>
       <c r="F27" s="83"/>
-      <c r="G27" s="109"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="83"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="104"/>
+      <c r="J27" s="93"/>
       <c r="K27" s="69"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="83"/>
       <c r="F28" s="83"/>
-      <c r="G28" s="109"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="83"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="104"/>
+      <c r="J28" s="93"/>
       <c r="K28" s="69"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="88"/>
       <c r="F29" s="83"/>
-      <c r="G29" s="110"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="83"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="112"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="101"/>
       <c r="K29" s="69"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="88"/>
       <c r="F30" s="83"/>
-      <c r="G30" s="109"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="83"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="101"/>
       <c r="K30" s="69"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="114"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="89"/>
       <c r="F31" s="90"/>
-      <c r="G31" s="115"/>
+      <c r="G31" s="104"/>
       <c r="H31" s="85"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
@@ -2139,7 +2142,7 @@
         <f>1-G32</f>
         <v>0.74538636363636357</v>
       </c>
-      <c r="J32" s="105"/>
+      <c r="J32" s="94"/>
       <c r="K32" s="71"/>
       <c r="L32" s="71"/>
     </row>
@@ -2156,12 +2159,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2170,10 +2173,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
@@ -2188,11 +2191,11 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="100">
+      <c r="A38" s="113">
         <f>A21-F32</f>
         <v>11478950</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="75">
         <f>1-G32</f>
         <v>0.74538636363636357</v>
@@ -2254,8 +2257,8 @@
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="99"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="112"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
@@ -2349,9 +2352,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="96"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="63"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2368,8 +2371,8 @@
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
       <c r="H53" s="57"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="99"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="112"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
@@ -2380,8 +2383,8 @@
       <c r="F54" s="60"/>
       <c r="G54" s="60"/>
       <c r="H54" s="59"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
@@ -2392,8 +2395,8 @@
       <c r="F55" s="61"/>
       <c r="G55" s="61"/>
       <c r="H55" s="61"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2406,18 +2409,23 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="98"/>
-      <c r="C61" s="99"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="112"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="98"/>
-      <c r="C68" s="99"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2425,16 +2433,11 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA40BC-221F-413A-B832-DB781A576D3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$38</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -191,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -859,8 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1024,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,18 +1049,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1138,6 +1150,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1173,6 +1202,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1348,56 +1394,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1405,7 +1451,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1417,7 +1463,7 @@
       <c r="K3" s="29"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -1455,14 +1501,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="105" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="44">
@@ -1480,17 +1526,17 @@
       <c r="I5" s="46"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="72"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="9">
@@ -1508,17 +1554,17 @@
       <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <f t="shared" ref="A7:A17" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="9">
@@ -1536,17 +1582,17 @@
       <c r="I7" s="47"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="73"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9">
@@ -1564,17 +1610,17 @@
       <c r="I8" s="47"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="73"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9">
@@ -1592,17 +1638,17 @@
       <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="73"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="9">
@@ -1620,17 +1666,17 @@
       <c r="I10" s="47"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="73"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="9">
@@ -1648,18 +1694,18 @@
       <c r="I11" s="48"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="73"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="107" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9">
@@ -1677,18 +1723,18 @@
       <c r="I12" s="48"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="73"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="9">
@@ -1708,17 +1754,17 @@
       <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="73"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9">
@@ -1736,17 +1782,17 @@
       <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="73"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="106" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="9">
@@ -1764,17 +1810,17 @@
       <c r="I15" s="48"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="73"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="107" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="9">
@@ -1792,17 +1838,17 @@
       <c r="I16" s="48"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="73"/>
-    </row>
-    <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="110"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="9">
         <v>100</v>
       </c>
@@ -1815,14 +1861,14 @@
         <v>100</v>
       </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="80"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="73"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="64"/>
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="63"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1832,9 +1878,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="13"/>
@@ -1844,11 +1890,11 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-    </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+    </row>
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>22</v>
       </c>
@@ -1879,77 +1925,77 @@
       <c r="J20" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="74">
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="72">
         <f>E5*700000</f>
         <v>15400000</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="74">
         <v>43643</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="76">
         <v>43648</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="86">
+      <c r="D21" s="74"/>
+      <c r="E21" s="84">
         <v>763476</v>
       </c>
-      <c r="F21" s="86">
+      <c r="F21" s="84">
         <v>789738</v>
       </c>
       <c r="G21" s="34">
         <f>F21/A$21</f>
         <v>5.1281688311688313E-2</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="82">
         <f>A21-F21</f>
         <v>14610262</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="77">
         <f>1-G21</f>
         <v>0.94871831168831167</v>
       </c>
-      <c r="J21" s="92"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="90"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
-      <c r="B22" s="77">
+      <c r="B22" s="75">
         <v>43717</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="75">
         <v>43723</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="75">
         <v>43725</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="85">
         <v>1046952</v>
       </c>
-      <c r="F22" s="87">
+      <c r="F22" s="85">
         <v>1133004</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="89">
         <f t="shared" ref="G22" si="2">F22/A$21</f>
         <v>7.357168831168831E-2</v>
       </c>
-      <c r="H22" s="83">
+      <c r="H22" s="81">
         <f t="shared" ref="H22:I22" si="3">H21-F22</f>
         <v>13477258</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="77">
         <f t="shared" si="3"/>
         <v>0.87514662337662341</v>
       </c>
-      <c r="J22" s="92"/>
+      <c r="J22" s="90"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="10">
         <v>43787</v>
@@ -1960,173 +2006,173 @@
       <c r="D23" s="10">
         <v>43795</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="81">
         <v>1112886</v>
       </c>
-      <c r="F23" s="83">
+      <c r="F23" s="81">
         <v>1150472</v>
       </c>
-      <c r="G23" s="91">
+      <c r="G23" s="89">
         <f t="shared" ref="G23" si="4">F23/A$21</f>
         <v>7.4705974025974023E-2</v>
       </c>
-      <c r="H23" s="83">
+      <c r="H23" s="81">
         <f t="shared" ref="H23" si="5">H22-F23</f>
         <v>12326786</v>
       </c>
-      <c r="I23" s="79">
+      <c r="I23" s="77">
         <f t="shared" ref="I23" si="6">I22-G23</f>
         <v>0.8004406493506494</v>
       </c>
-      <c r="J23" s="92"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="90"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="95">
+      <c r="B24" s="93">
         <v>43868</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="93">
         <v>43872</v>
       </c>
-      <c r="D24" s="95">
+      <c r="D24" s="93">
         <v>43873</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="86">
         <v>797202</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="86">
         <v>847836</v>
       </c>
-      <c r="G24" s="91">
+      <c r="G24" s="89">
         <f t="shared" ref="G24" si="7">F24/A$21</f>
         <v>5.5054285714285715E-2</v>
       </c>
-      <c r="H24" s="83">
+      <c r="H24" s="81">
         <f t="shared" ref="H24" si="8">H23-F24</f>
         <v>11478950</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="77">
         <f t="shared" ref="I24" si="9">I23-G24</f>
         <v>0.74538636363636368</v>
       </c>
-      <c r="J24" s="97">
+      <c r="J24" s="95">
         <v>386</v>
       </c>
-      <c r="K24" s="69"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="83"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="70"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="83"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="69"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="83"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="83"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="69"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="69"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="67"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="69"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="67"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="53">
+      <c r="E32" s="120">
         <f>SUM(E21:E31)</f>
         <v>3720516</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="121">
         <f>SUM(F21:F31)</f>
         <v>3921050</v>
       </c>
@@ -2142,11 +2188,11 @@
         <f>1-G32</f>
         <v>0.74538636363636357</v>
       </c>
-      <c r="J32" s="94"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32" s="92"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2158,13 +2204,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="118" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2172,11 +2218,11 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="115" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="115"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
@@ -2190,13 +2236,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="113">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="117">
         <f>A21-F32</f>
         <v>11478950</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="75">
+      <c r="B38" s="118"/>
+      <c r="C38" s="73">
         <f>1-G32</f>
         <v>0.74538636363636357</v>
       </c>
@@ -2204,16 +2250,16 @@
         <f>(C38/0.8)*100</f>
         <v>93.173295454545439</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2221,7 +2267,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2236,7 +2282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2248,157 +2294,157 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="112"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="116"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="59"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="59"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="57"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="57"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="59"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="59"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="57"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="57"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="59"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="59"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="59"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="57"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="57"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="57"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="59"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="57"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="63"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="112"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="116"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="56"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="56"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2408,24 +2454,19 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="111"/>
-      <c r="C61" s="112"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="115"/>
+      <c r="C68" s="116"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2433,11 +2474,16 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="12" man="1"/>
@@ -2449,12 +2495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2463,24 +2509,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA40BC-221F-413A-B832-DB781A576D3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391FE89-DFD7-4B7C-B7BA-D7068F0A30D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>№Поз</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Маркировка</t>
   </si>
   <si>
-    <t>Кол-во,  шт</t>
-  </si>
-  <si>
-    <t>Остаток, шт</t>
-  </si>
-  <si>
     <t>Черновая форма</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Остаточный ресурс формо-комплекта, шт.</t>
   </si>
   <si>
-    <t>Марки-ровка</t>
-  </si>
-  <si>
     <t>Остаточный ресурс формо-комплекта, %.</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Фактически пригодных деталей,    шт</t>
   </si>
   <si>
-    <t>Остаточный ресурс детали,              %</t>
-  </si>
-  <si>
     <t>Кол-во по ТТН,  шт</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
   </si>
   <si>
     <t>Фактическое количество деталей по акту приемки, шт.</t>
-  </si>
-  <si>
-    <t>Кол-во брака, шт</t>
   </si>
   <si>
     <t>Дата поставки  11.06.19 (c остаточным ресурсом 100 %)</t>
@@ -361,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -484,35 +469,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -697,22 +654,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -725,12 +680,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -740,7 +691,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -751,7 +702,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,7 +724,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,14 +733,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,13 +758,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,48 +767,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -909,31 +831,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -943,13 +856,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,16 +877,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -985,16 +898,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1003,16 +916,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,7 +934,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1040,7 +959,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,11 +968,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1401,7 +1338,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:F32"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1421,34 +1358,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="A1" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="28"/>
+      <c r="A2" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1459,416 +1396,404 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="M3" s="13"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="113"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="37">
+        <v>1</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="41">
-        <v>1</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="44">
+      <c r="D5" s="39">
         <v>22</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="39">
         <v>22</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44">
+      <c r="F5" s="38"/>
+      <c r="G5" s="109">
         <f>E5-F5</f>
         <v>22</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="70"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="112"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="40">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8">
         <v>22</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>22</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="9">
+      <c r="F6" s="20"/>
+      <c r="G6" s="110">
         <f t="shared" ref="G6:G17" si="0">E6-F6</f>
         <v>22</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="71"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="112"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="40">
         <f t="shared" ref="A7:A17" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
         <v>26</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>26</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="9">
+      <c r="F7" s="20"/>
+      <c r="G7" s="110">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="71"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8">
         <v>26</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>26</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="9">
+      <c r="F8" s="20"/>
+      <c r="G8" s="110">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="71"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8">
         <v>18</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>18</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="9">
+      <c r="F9" s="20"/>
+      <c r="G9" s="110">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="115"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="71"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="112"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="45">
+      <c r="A10" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8">
         <v>18</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>18</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="9">
+      <c r="F10" s="20"/>
+      <c r="G10" s="110">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="71"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="112"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
+      <c r="A11" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8">
         <v>50</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>50</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="9">
+      <c r="F11" s="24"/>
+      <c r="G11" s="110">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="115"/>
       <c r="I11" s="48"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="24"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="45">
+      <c r="A12" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8">
         <v>22</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>22</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="9">
+      <c r="F12" s="25"/>
+      <c r="G12" s="110">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H12" s="51"/>
+      <c r="H12" s="115"/>
       <c r="I12" s="48"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="24"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="40">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8">
         <v>8</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="9">
+      <c r="F13" s="20"/>
+      <c r="G13" s="110">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="51" t="s">
-        <v>28</v>
-      </c>
+      <c r="H13" s="115"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="71"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="45">
+      <c r="A14" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="106" t="s">
+      <c r="B14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8">
         <v>40</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E14" s="8">
         <v>40</v>
       </c>
-      <c r="E14" s="9">
-        <v>40</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="9">
+      <c r="F14" s="24"/>
+      <c r="G14" s="110">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="51"/>
+      <c r="H14" s="115"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="71"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="112"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
+      <c r="A15" s="40">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8">
         <v>50</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>50</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="9">
+      <c r="F15" s="20"/>
+      <c r="G15" s="110">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="115"/>
       <c r="I15" s="48"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="71"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="112"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="45">
+      <c r="A16" s="40">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="B16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8">
         <v>22</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>22</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="9">
+      <c r="F16" s="20"/>
+      <c r="G16" s="110">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="48"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="71"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="112"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
+      <c r="A17" s="40">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="9">
+      <c r="B17" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="8">
         <v>100</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>100</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="9">
+      <c r="F17" s="20"/>
+      <c r="G17" s="110">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="71"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="112"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1880,317 +1805,401 @@
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="36" t="s">
+      <c r="I20" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="J20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="72">
+      <c r="A21" s="59">
         <f>E5*700000</f>
         <v>15400000</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="61">
         <v>43643</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="63">
         <v>43648</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="84">
+      <c r="D21" s="61"/>
+      <c r="E21" s="70">
         <v>763476</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="70">
         <v>789738</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="30">
         <f>F21/A$21</f>
         <v>5.1281688311688313E-2</v>
       </c>
-      <c r="H21" s="82">
+      <c r="H21" s="68">
         <f>A21-F21</f>
         <v>14610262</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="64">
         <f>1-G21</f>
         <v>0.94871831168831167</v>
       </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="75">
+      <c r="A22" s="36"/>
+      <c r="B22" s="62">
         <v>43717</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="62">
         <v>43723</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="62">
         <v>43725</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="71">
         <v>1046952</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="71">
         <v>1133004</v>
       </c>
-      <c r="G22" s="89">
+      <c r="G22" s="75">
         <f t="shared" ref="G22" si="2">F22/A$21</f>
         <v>7.357168831168831E-2</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="67">
         <f t="shared" ref="H22:I22" si="3">H21-F22</f>
         <v>13477258</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="64">
         <f t="shared" si="3"/>
         <v>0.87514662337662341</v>
       </c>
-      <c r="J22" s="90"/>
+      <c r="J22" s="76"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9">
         <v>43787</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>43793</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>43795</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="67">
         <v>1112886</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="67">
         <v>1150472</v>
       </c>
-      <c r="G23" s="89">
+      <c r="G23" s="75">
         <f t="shared" ref="G23" si="4">F23/A$21</f>
         <v>7.4705974025974023E-2</v>
       </c>
-      <c r="H23" s="81">
+      <c r="H23" s="67">
         <f t="shared" ref="H23" si="5">H22-F23</f>
         <v>12326786</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="64">
         <f t="shared" ref="I23" si="6">I22-G23</f>
         <v>0.8004406493506494</v>
       </c>
-      <c r="J23" s="90"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="93">
+      <c r="A24" s="13"/>
+      <c r="B24" s="79">
         <v>43868</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="79">
         <v>43872</v>
       </c>
-      <c r="D24" s="93">
+      <c r="D24" s="79">
         <v>43873</v>
       </c>
-      <c r="E24" s="86">
+      <c r="E24" s="72">
         <v>797202</v>
       </c>
-      <c r="F24" s="86">
+      <c r="F24" s="72">
         <v>847836</v>
       </c>
-      <c r="G24" s="89">
-        <f t="shared" ref="G24" si="7">F24/A$21</f>
+      <c r="G24" s="75">
+        <f t="shared" ref="G24:G28" si="7">F24/A$21</f>
         <v>5.5054285714285715E-2</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="67">
         <f t="shared" ref="H24" si="8">H23-F24</f>
         <v>11478950</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="64">
         <f t="shared" ref="I24" si="9">I23-G24</f>
         <v>0.74538636363636368</v>
       </c>
-      <c r="J24" s="95">
+      <c r="J24" s="81">
         <v>386</v>
       </c>
-      <c r="K24" s="67"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="68"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="79">
+        <v>44005</v>
+      </c>
+      <c r="C25" s="79">
+        <v>44007</v>
+      </c>
+      <c r="D25" s="79">
+        <v>44021</v>
+      </c>
+      <c r="E25" s="67">
+        <v>439560</v>
+      </c>
+      <c r="F25" s="67">
+        <v>488160</v>
+      </c>
+      <c r="G25" s="82">
+        <f t="shared" si="7"/>
+        <v>3.1698701298701296E-2</v>
+      </c>
+      <c r="H25" s="67">
+        <f t="shared" ref="H25" si="10">H24-F25</f>
+        <v>10990790</v>
+      </c>
+      <c r="I25" s="64">
+        <f t="shared" ref="I25" si="11">I24-G25</f>
+        <v>0.71368766233766234</v>
+      </c>
+      <c r="J25" s="77">
+        <v>386</v>
+      </c>
+      <c r="K25" s="57"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="67"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="79">
+        <v>44076</v>
+      </c>
+      <c r="C26" s="79">
+        <v>44080</v>
+      </c>
+      <c r="D26" s="79">
+        <v>44105</v>
+      </c>
+      <c r="E26" s="67">
+        <v>787212</v>
+      </c>
+      <c r="F26" s="67">
+        <v>827050</v>
+      </c>
+      <c r="G26" s="82">
+        <f t="shared" si="7"/>
+        <v>5.3704545454545456E-2</v>
+      </c>
+      <c r="H26" s="67">
+        <f t="shared" ref="H26" si="12">H25-F26</f>
+        <v>10163740</v>
+      </c>
+      <c r="I26" s="64">
+        <f t="shared" ref="I26" si="13">I25-G26</f>
+        <v>0.65998311688311684</v>
+      </c>
+      <c r="J26" s="77">
+        <v>386</v>
+      </c>
+      <c r="K26" s="56"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="67"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="79">
+        <v>44172</v>
+      </c>
+      <c r="C27" s="79">
+        <v>44176</v>
+      </c>
+      <c r="D27" s="79">
+        <v>44200</v>
+      </c>
+      <c r="E27" s="67">
+        <v>769230</v>
+      </c>
+      <c r="F27" s="67">
+        <v>801619</v>
+      </c>
+      <c r="G27" s="82">
+        <f t="shared" si="7"/>
+        <v>5.2053181818181818E-2</v>
+      </c>
+      <c r="H27" s="67">
+        <f t="shared" ref="H27" si="14">H26-F27</f>
+        <v>9362121</v>
+      </c>
+      <c r="I27" s="64">
+        <f t="shared" ref="I27" si="15">I26-G27</f>
+        <v>0.60792993506493498</v>
+      </c>
+      <c r="J27" s="77">
+        <v>386</v>
+      </c>
+      <c r="K27" s="56"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="67"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="79">
+        <v>44244</v>
+      </c>
+      <c r="C28" s="79">
+        <v>44248</v>
+      </c>
+      <c r="D28" s="79">
+        <v>44256</v>
+      </c>
+      <c r="E28" s="67">
+        <v>799200</v>
+      </c>
+      <c r="F28" s="67">
+        <v>829174</v>
+      </c>
+      <c r="G28" s="82">
+        <f t="shared" si="7"/>
+        <v>5.3842467532467533E-2</v>
+      </c>
+      <c r="H28" s="67">
+        <f t="shared" ref="H28" si="16">H27-F28</f>
+        <v>8532947</v>
+      </c>
+      <c r="I28" s="64">
+        <f t="shared" ref="I28" si="17">I27-G28</f>
+        <v>0.5540874675324674</v>
+      </c>
+      <c r="J28" s="77">
+        <v>390</v>
+      </c>
+      <c r="K28" s="56"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="67"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="67"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="104"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="120">
+      <c r="A32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="95">
         <f>SUM(E21:E31)</f>
-        <v>3720516</v>
-      </c>
-      <c r="F32" s="121">
+        <v>6515718</v>
+      </c>
+      <c r="F32" s="96">
         <f>SUM(F21:F31)</f>
-        <v>3921050</v>
-      </c>
-      <c r="G32" s="22">
+        <v>6867053</v>
+      </c>
+      <c r="G32" s="21">
         <f>SUM(G21:G31)</f>
-        <v>0.25461363636363638</v>
-      </c>
-      <c r="H32" s="19">
+        <v>0.44591253246753243</v>
+      </c>
+      <c r="H32" s="18">
         <f>A21-F32</f>
-        <v>11478950</v>
-      </c>
-      <c r="I32" s="25">
+        <v>8532947</v>
+      </c>
+      <c r="I32" s="23">
         <f>1-G32</f>
-        <v>0.74538636363636357</v>
-      </c>
-      <c r="J32" s="92"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
+        <v>0.55408746753246763</v>
+      </c>
+      <c r="J32" s="78"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -2205,12 +2214,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
+      <c r="A36" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2219,15 +2228,15 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="107"/>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2237,27 +2246,27 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="117">
+      <c r="A38" s="105">
         <f>A21-F32</f>
-        <v>11478950</v>
-      </c>
-      <c r="B38" s="118"/>
-      <c r="C38" s="73">
+        <v>8532947</v>
+      </c>
+      <c r="B38" s="106"/>
+      <c r="C38" s="60">
         <f>1-G32</f>
-        <v>0.74538636363636357</v>
-      </c>
-      <c r="D38" s="20">
+        <v>0.55408746753246763</v>
+      </c>
+      <c r="D38" s="19">
         <f>(C38/0.8)*100</f>
-        <v>93.173295454545439</v>
-      </c>
-      <c r="E38" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
+        <v>69.26093344155845</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -2279,7 +2288,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2295,113 +2304,113 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="116"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="104"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="57"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="57"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="57"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="57"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="57"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="57"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="57"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="57"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="61"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2409,40 +2418,40 @@
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="116"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
@@ -2455,12 +2464,12 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="115"/>
-      <c r="C61" s="116"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="115"/>
-      <c r="C68" s="116"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/3. XXI-В-28-2.1б-500-3 (Дрозды 0,5 л.).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391FE89-DFD7-4B7C-B7BA-D7068F0A30D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE146A2-A0A6-43F7-A70B-96B8A5DD3EF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -943,54 +943,54 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1335,10 +1335,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1358,29 +1358,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="26"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1419,14 +1419,14 @@
       <c r="F4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="37">
@@ -1445,15 +1445,15 @@
         <v>22</v>
       </c>
       <c r="F5" s="38"/>
-      <c r="G5" s="109">
+      <c r="G5" s="98">
         <f>E5-F5</f>
         <v>22</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="112"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="112"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="40">
@@ -1473,15 +1473,15 @@
         <v>22</v>
       </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="110">
+      <c r="G6" s="99">
         <f t="shared" ref="G6:G17" si="0">E6-F6</f>
         <v>22</v>
       </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="112"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="112"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
@@ -1501,15 +1501,15 @@
         <v>26</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="110">
+      <c r="G7" s="99">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="112"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="112"/>
+      <c r="L7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="40">
@@ -1529,15 +1529,15 @@
         <v>26</v>
       </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="110">
+      <c r="G8" s="99">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="112"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="48"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="112"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="40">
@@ -1557,15 +1557,15 @@
         <v>18</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="110">
+      <c r="G9" s="99">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="115"/>
+      <c r="H9" s="104"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
-      <c r="L9" s="112"/>
+      <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="40">
@@ -1585,15 +1585,15 @@
         <v>18</v>
       </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="110">
+      <c r="G10" s="99">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="112"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="48"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="112"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
@@ -1613,15 +1613,15 @@
         <v>50</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="110">
+      <c r="G11" s="99">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="115"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="112"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1642,15 +1642,15 @@
         <v>22</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="110">
+      <c r="G12" s="99">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H12" s="115"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="112"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1671,15 +1671,15 @@
         <v>8</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="110">
+      <c r="G13" s="99">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="115"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
-      <c r="L13" s="112"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="40">
@@ -1699,15 +1699,15 @@
         <v>40</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="110">
+      <c r="G14" s="99">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="115"/>
+      <c r="H14" s="104"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
-      <c r="L14" s="112"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="40">
@@ -1727,15 +1727,15 @@
         <v>50</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="110">
+      <c r="G15" s="99">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="115"/>
+      <c r="H15" s="104"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
-      <c r="L15" s="112"/>
+      <c r="L15" s="101"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="40">
@@ -1755,15 +1755,15 @@
         <v>22</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="110">
+      <c r="G16" s="99">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H16" s="115"/>
+      <c r="H16" s="104"/>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="112"/>
+      <c r="L16" s="101"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="40">
@@ -1781,15 +1781,15 @@
         <v>100</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="110">
+      <c r="G17" s="99">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H17" s="115"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="112"/>
+      <c r="L17" s="101"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
@@ -1971,7 +1971,7 @@
         <v>847836</v>
       </c>
       <c r="G24" s="75">
-        <f t="shared" ref="G24:G28" si="7">F24/A$21</f>
+        <f t="shared" ref="G24:G29" si="7">F24/A$21</f>
         <v>5.5054285714285715E-2</v>
       </c>
       <c r="H24" s="67">
@@ -2130,15 +2130,36 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
+      <c r="B29" s="79">
+        <v>44364</v>
+      </c>
+      <c r="C29" s="79">
+        <v>44367</v>
+      </c>
+      <c r="D29" s="79">
+        <v>44378</v>
+      </c>
+      <c r="E29" s="67">
+        <v>629370</v>
+      </c>
+      <c r="F29" s="67">
+        <v>661705</v>
+      </c>
+      <c r="G29" s="82">
+        <f t="shared" si="7"/>
+        <v>4.2967857142857141E-2</v>
+      </c>
+      <c r="H29" s="67">
+        <f t="shared" ref="H29" si="18">H28-F29</f>
+        <v>7871242</v>
+      </c>
+      <c r="I29" s="64">
+        <f t="shared" ref="I29" si="19">I28-G29</f>
+        <v>0.51111961038961029</v>
+      </c>
+      <c r="J29" s="77">
+        <v>390</v>
+      </c>
       <c r="K29" s="56"/>
       <c r="L29" s="1"/>
     </row>
@@ -2146,234 +2167,246 @@
       <c r="A30" s="13"/>
       <c r="B30" s="79"/>
       <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="72"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="67"/>
       <c r="F30" s="67"/>
       <c r="G30" s="82"/>
       <c r="H30" s="67"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="77"/>
       <c r="K30" s="56"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="1"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="95">
-        <f>SUM(E21:E31)</f>
-        <v>6515718</v>
-      </c>
-      <c r="F32" s="96">
-        <f>SUM(F21:F31)</f>
-        <v>6867053</v>
-      </c>
-      <c r="G32" s="21">
-        <f>SUM(G21:G31)</f>
-        <v>0.44591253246753243</v>
-      </c>
-      <c r="H32" s="18">
-        <f>A21-F32</f>
-        <v>8532947</v>
-      </c>
-      <c r="I32" s="23">
-        <f>1-G32</f>
-        <v>0.55408746753246763</v>
-      </c>
-      <c r="J32" s="78"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="98" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="95">
+        <f>SUM(E21:E34)</f>
+        <v>7145088</v>
+      </c>
+      <c r="F35" s="96">
+        <f>SUM(F21:F34)</f>
+        <v>7528758</v>
+      </c>
+      <c r="G35" s="21">
+        <f>SUM(G21:G34)</f>
+        <v>0.4888803896103896</v>
+      </c>
+      <c r="H35" s="18">
+        <f>A21-F35</f>
+        <v>7871242</v>
+      </c>
+      <c r="I35" s="23">
+        <f>1-G35</f>
+        <v>0.5111196103896104</v>
+      </c>
+      <c r="J35" s="78"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="105">
-        <f>A21-F32</f>
-        <v>8532947</v>
-      </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="60">
-        <f>1-G32</f>
-        <v>0.55408746753246763</v>
-      </c>
-      <c r="D38" s="19">
-        <f>(C38/0.8)*100</f>
-        <v>69.26093344155845</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="109"/>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="104"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="107">
+        <f>A21-F35</f>
+        <v>7871242</v>
+      </c>
+      <c r="B41" s="108"/>
+      <c r="C41" s="60">
+        <f>1-G35</f>
+        <v>0.5111196103896104</v>
+      </c>
+      <c r="D41" s="19">
+        <f>(C41/0.8)*100</f>
+        <v>63.889951298701298</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="46"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="106"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="46"/>
       <c r="G46" s="47"/>
       <c r="H46" s="46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="46"/>
       <c r="G47" s="47"/>
       <c r="H47" s="46"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
@@ -2389,8 +2422,8 @@
       <c r="A50" s="45"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="46"/>
       <c r="G50" s="47"/>
       <c r="H50" s="46"/>
@@ -2398,104 +2431,134 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="46"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="104"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="47"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="47"/>
       <c r="H54" s="46"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="103"/>
-      <c r="C61" s="104"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="103"/>
-      <c r="C68" s="104"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="106"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="105"/>
+      <c r="C64" s="106"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="105"/>
+      <c r="C71" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="12" man="1"/>
+    <brk id="41" max="12" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="37" man="1"/>
